--- a/__encodeapk/闻秀艳个税样板.xlsx
+++ b/__encodeapk/闻秀艳个税样板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A352807E-3D8A-8A4B-95F1-F448BB03C438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FDF3DB-4E48-DF4A-ADAF-C53D53BD4EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="460" windowWidth="18520" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -215,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -304,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,10 +314,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -329,22 +329,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,13 +353,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -646,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -767,7 +764,7 @@
       <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -803,7 +800,7 @@
       </c>
       <c r="E5"/>
       <c r="H5"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
@@ -815,7 +812,7 @@
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
@@ -824,7 +821,7 @@
       <c r="B7" s="7"/>
       <c r="E7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="20"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
@@ -914,7 +911,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="10">
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>56</v>
@@ -922,8 +919,9 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="12">
-        <v>43854</v>
+      <c r="D21" s="9" t="str">
+        <f>TEXT(A21,"yyyy-mm-dd")</f>
+        <v>2021-01-24</v>
       </c>
       <c r="E21" s="4">
         <v>11543</v>
@@ -942,7 +940,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" ref="J21:J25" si="0">TEXT(A21,"yyyy-mm")</f>
-        <v>2020-01</v>
+        <v>2021-01</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -962,7 +960,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
@@ -970,8 +968,9 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="12">
-        <v>43881</v>
+      <c r="D22" s="9" t="str">
+        <f t="shared" ref="D22:D25" si="1">TEXT(A22,"yyyy-mm-dd")</f>
+        <v>2021-02-20</v>
       </c>
       <c r="E22" s="4">
         <v>20940</v>
@@ -990,7 +989,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02</v>
+        <v>2021-02</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1010,7 +1009,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="10">
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>56</v>
@@ -1018,8 +1017,9 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="12">
-        <v>43885</v>
+      <c r="D23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-02-24</v>
       </c>
       <c r="E23" s="4">
         <v>11300</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>2020-02</v>
+        <v>2021-02</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="10">
-        <v>43914</v>
+        <v>44279</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>56</v>
@@ -1066,8 +1066,9 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="12">
-        <v>43914</v>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-03-24</v>
       </c>
       <c r="E24" s="4">
         <v>10620</v>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>2020-03</v>
+        <v>2021-03</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -1106,7 +1107,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="10">
-        <v>43945</v>
+        <v>44310</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>56</v>
@@ -1114,8 +1115,9 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="12">
-        <v>43945</v>
+      <c r="D25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-04-24</v>
       </c>
       <c r="E25" s="4">
         <v>11800</v>
@@ -1134,7 +1136,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>2020-04</v>
+        <v>2021-04</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f t="shared" ref="D31:D41" si="1">TEXT(A31,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D31:D41" si="2">TEXT(A31,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
       <c r="E31" s="4">
@@ -1288,7 +1290,7 @@
         <v>58</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J41" si="2">TEXT(A31,"yyyy-mm")</f>
+        <f t="shared" ref="J31:J41" si="3">TEXT(A31,"yyyy-mm")</f>
         <v>2020-02</v>
       </c>
       <c r="K31" s="4">
@@ -1318,7 +1320,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-03-24</v>
       </c>
       <c r="E32" s="4">
@@ -1337,7 +1339,7 @@
         <v>58</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-03</v>
       </c>
       <c r="K32" s="4">
@@ -1367,7 +1369,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-04-24</v>
       </c>
       <c r="E33" s="4">
@@ -1386,7 +1388,7 @@
         <v>58</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-04</v>
       </c>
       <c r="K33" s="4">
@@ -1416,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-05-24</v>
       </c>
       <c r="E34" s="4">
@@ -1435,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-05</v>
       </c>
       <c r="K34" s="4">
@@ -1465,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-06-24</v>
       </c>
       <c r="E35" s="4">
@@ -1484,7 +1486,7 @@
         <v>58</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-06</v>
       </c>
       <c r="K35" s="4">
@@ -1514,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-07-24</v>
       </c>
       <c r="E36" s="4">
@@ -1533,7 +1535,7 @@
         <v>58</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-07</v>
       </c>
       <c r="K36" s="4">
@@ -1563,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-08-24</v>
       </c>
       <c r="E37" s="4">
@@ -1582,7 +1584,7 @@
         <v>58</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-08</v>
       </c>
       <c r="K37" s="4">
@@ -1612,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-09-24</v>
       </c>
       <c r="E38" s="4">
@@ -1631,7 +1633,7 @@
         <v>58</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-09</v>
       </c>
       <c r="K38" s="4">
@@ -1661,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-10-24</v>
       </c>
       <c r="E39" s="4">
@@ -1680,7 +1682,7 @@
         <v>58</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-10</v>
       </c>
       <c r="K39" s="4">
@@ -1710,7 +1712,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-11-24</v>
       </c>
       <c r="E40" s="4">
@@ -1729,7 +1731,7 @@
         <v>58</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-11</v>
       </c>
       <c r="K40" s="4">
@@ -1759,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020-12-24</v>
       </c>
       <c r="E41" s="4">
@@ -1778,7 +1780,7 @@
         <v>58</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020-12</v>
       </c>
       <c r="K41" s="4">
@@ -1798,7 +1800,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
       <c r="K42"/>
       <c r="O42" s="4"/>
     </row>
@@ -1810,7 +1812,7 @@
       <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>2019</v>
       </c>
       <c r="K44"/>
@@ -1925,7 +1927,7 @@
         <v>35</v>
       </c>
       <c r="D47" s="9" t="str">
-        <f t="shared" ref="D47:D57" si="3">TEXT(A47,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D47:D57" si="4">TEXT(A47,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
       <c r="E47" s="4">
@@ -1944,7 +1946,7 @@
         <v>58</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47:J57" si="4">TEXT(A47,"yyyy-mm")</f>
+        <f t="shared" ref="J47:J57" si="5">TEXT(A47,"yyyy-mm")</f>
         <v>2019-02</v>
       </c>
       <c r="K47" s="4">
@@ -1974,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-03-24</v>
       </c>
       <c r="E48" s="4">
@@ -1993,7 +1995,7 @@
         <v>58</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-03</v>
       </c>
       <c r="K48" s="4">
@@ -2023,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-04-24</v>
       </c>
       <c r="E49" s="4">
@@ -2042,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-04</v>
       </c>
       <c r="K49" s="4">
@@ -2072,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="D50" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-05-24</v>
       </c>
       <c r="E50" s="4">
@@ -2091,7 +2093,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-05</v>
       </c>
       <c r="K50" s="4">
@@ -2121,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="D51" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-06-24</v>
       </c>
       <c r="E51" s="4">
@@ -2140,7 +2142,7 @@
         <v>58</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-06</v>
       </c>
       <c r="K51" s="4">
@@ -2170,7 +2172,7 @@
         <v>35</v>
       </c>
       <c r="D52" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-07-24</v>
       </c>
       <c r="E52" s="4">
@@ -2189,7 +2191,7 @@
         <v>58</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-07</v>
       </c>
       <c r="K52" s="4">
@@ -2219,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="D53" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-08-24</v>
       </c>
       <c r="E53" s="4">
@@ -2238,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-08</v>
       </c>
       <c r="K53" s="4">
@@ -2268,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="D54" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-09-24</v>
       </c>
       <c r="E54" s="4">
@@ -2287,7 +2289,7 @@
         <v>58</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-09</v>
       </c>
       <c r="K54" s="4">
@@ -2317,7 +2319,7 @@
         <v>35</v>
       </c>
       <c r="D55" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-10-24</v>
       </c>
       <c r="E55" s="4">
@@ -2336,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-10</v>
       </c>
       <c r="K55" s="4">
@@ -2366,7 +2368,7 @@
         <v>35</v>
       </c>
       <c r="D56" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-11-24</v>
       </c>
       <c r="E56" s="4">
@@ -2385,7 +2387,7 @@
         <v>58</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-11</v>
       </c>
       <c r="K56" s="4">
@@ -2415,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="D57" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019-12-24</v>
       </c>
       <c r="E57" s="4">
@@ -2434,7 +2436,7 @@
         <v>58</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-12</v>
       </c>
       <c r="K57" s="4">
@@ -2455,14 +2457,14 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="10"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="D58" s="9"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/__encodeapk/闻秀艳个税样板.xlsx
+++ b/__encodeapk/闻秀艳个税样板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FDF3DB-4E48-DF4A-ADAF-C53D53BD4EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27746B7F-6552-244C-820E-3DE56A802763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="460" windowWidth="18520" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,130 +84,132 @@
     <t>是否默认登陆（1是登陆；0是未登陆）</t>
   </si>
   <si>
-    <t xml:space="preserve">闻秀艳   </t>
+    <t>女</t>
+  </si>
+  <si>
+    <t>211481197501132223</t>
+  </si>
+  <si>
+    <t>辽宁省 兴城市  沙后所镇</t>
+  </si>
+  <si>
+    <t>闻家村郭屯59号</t>
+  </si>
+  <si>
+    <t>北京市 石景山区 石景山区金顶街街道</t>
+  </si>
+  <si>
+    <t>模式口中里18号楼5层3单元501号</t>
+  </si>
+  <si>
+    <t>大学本科</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>15210596003 @qq.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>第1家</t>
+  </si>
+  <si>
+    <t>忽略不可修改</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>百岁时代（北京）医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>统一社会信用代码</t>
+  </si>
+  <si>
+    <t>9111010506485964XD</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>任职受雇日期</t>
+  </si>
+  <si>
+    <t>离职日期</t>
+  </si>
+  <si>
+    <t>申报日期</t>
+  </si>
+  <si>
+    <t>所得项目小类</t>
+  </si>
+  <si>
+    <t>扣缴义务人</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>已申报税额</t>
+  </si>
+  <si>
+    <t>主管税务机关</t>
+  </si>
+  <si>
+    <t>申报渠道</t>
+  </si>
+  <si>
+    <t>税款所属期</t>
+  </si>
+  <si>
+    <t>本期免税收入</t>
+  </si>
+  <si>
+    <t>本期减除费用</t>
+  </si>
+  <si>
+    <t>本期专项扣除</t>
+  </si>
+  <si>
+    <t>本期其他扣除</t>
+  </si>
+  <si>
+    <t>本期准予扣除的捐赠项目</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>正常工资薪金</t>
+  </si>
+  <si>
+    <t>国家税务总局北京市朝阳区税务局</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>全年一次性奖金收入</t>
+  </si>
+  <si>
+    <t>闻秀艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">15210596003 </t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>211481197501132223</t>
-  </si>
-  <si>
-    <t>辽宁省 兴城市  沙后所镇</t>
-  </si>
-  <si>
-    <t>闻家村郭屯59号</t>
-  </si>
-  <si>
-    <t>北京市 石景山区 石景山区金顶街街道</t>
-  </si>
-  <si>
-    <t>模式口中里18号楼5层3单元501号</t>
-  </si>
-  <si>
-    <t>大学本科</t>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>15210596003 @qq.com</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>第1家</t>
-  </si>
-  <si>
-    <t>忽略不可修改</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>百岁时代（北京）医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>统一社会信用代码</t>
-  </si>
-  <si>
-    <t>9111010506485964XD</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>任职受雇日期</t>
-  </si>
-  <si>
-    <t>离职日期</t>
-  </si>
-  <si>
-    <t>申报日期</t>
-  </si>
-  <si>
-    <t>所得项目小类</t>
-  </si>
-  <si>
-    <t>扣缴义务人</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>已申报税额</t>
-  </si>
-  <si>
-    <t>主管税务机关</t>
-  </si>
-  <si>
-    <t>申报渠道</t>
-  </si>
-  <si>
-    <t>税款所属期</t>
-  </si>
-  <si>
-    <t>本期免税收入</t>
-  </si>
-  <si>
-    <t>本期减除费用</t>
-  </si>
-  <si>
-    <t>本期专项扣除</t>
-  </si>
-  <si>
-    <t>本期其他扣除</t>
-  </si>
-  <si>
-    <t>本期准予扣除的捐赠项目</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>正常工资薪金</t>
-  </si>
-  <si>
-    <t>国家税务总局北京市朝阳区税务局</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>全年一次性奖金收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -219,7 +221,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +268,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -304,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +329,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -364,6 +371,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -724,202 +737,202 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="R2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4"/>
       <c r="I4"/>
       <c r="L4"/>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5"/>
       <c r="H5"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="K7" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7">
         <v>43466</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="8" t="str">
         <f>TEXT(B8,"yyyy-mm-dd")</f>
         <v>2019-01-01</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
         <v>46</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>47</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>44220</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>56</v>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8" t="str">
         <f>TEXT(A21,"yyyy-mm-dd")</f>
         <v>2021-01-24</v>
       </c>
@@ -930,13 +943,13 @@
         <v>188.05</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ref="J21:J25" si="0">TEXT(A21,"yyyy-mm")</f>
@@ -959,16 +972,16 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>44247</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>59</v>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="str">
         <f t="shared" ref="D22:D25" si="1">TEXT(A22,"yyyy-mm-dd")</f>
         <v>2021-02-20</v>
       </c>
@@ -979,13 +992,13 @@
         <v>919.13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -1008,16 +1021,16 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>44251</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>56</v>
+      <c r="B23" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2021-02-24</v>
       </c>
@@ -1028,13 +1041,13 @@
         <v>169.14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -1057,16 +1070,16 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>44279</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>56</v>
+      <c r="B24" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2021-03-24</v>
       </c>
@@ -1077,13 +1090,13 @@
         <v>116.24</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -1106,16 +1119,16 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>44310</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>56</v>
+      <c r="B25" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2021-04-24</v>
       </c>
@@ -1126,13 +1139,13 @@
         <v>208.04</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1156,23 +1169,23 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>43854</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>56</v>
+      <c r="B29" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D29" s="8" t="str">
         <f>TEXT(A29,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
@@ -1182,14 +1195,14 @@
       <c r="F29" s="4">
         <v>145.80000000000001</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>37</v>
+      <c r="G29" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J29" t="str">
         <f>TEXT(A29,"yyyy-mm")</f>
@@ -1212,16 +1225,16 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>43881</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>59</v>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8" t="str">
         <f>TEXT(A30,"yyyy-mm-dd")</f>
         <v>2020-02-20</v>
       </c>
@@ -1231,14 +1244,14 @@
       <c r="F30" s="4">
         <v>748.75</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>37</v>
+      <c r="G30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" t="str">
         <f>TEXT(A30,"yyyy-mm")</f>
@@ -1261,16 +1274,16 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>43885</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>56</v>
+      <c r="B31" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8" t="str">
         <f t="shared" ref="D31:D41" si="2">TEXT(A31,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
@@ -1280,14 +1293,14 @@
       <c r="F31" s="4">
         <v>218.93</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>37</v>
+      <c r="G31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ref="J31:J41" si="3">TEXT(A31,"yyyy-mm")</f>
@@ -1310,16 +1323,16 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>43914</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>56</v>
+      <c r="B32" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D32" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-03-24</v>
       </c>
@@ -1329,14 +1342,14 @@
       <c r="F32" s="4">
         <v>270.27999999999997</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>37</v>
+      <c r="G32" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
@@ -1359,16 +1372,16 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>43945</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>56</v>
+      <c r="B33" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-04-24</v>
       </c>
@@ -1378,14 +1391,14 @@
       <c r="F33" s="4">
         <v>160.58000000000001</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>37</v>
+      <c r="G33" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
@@ -1408,16 +1421,16 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>43975</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>56</v>
+      <c r="B34" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-05-24</v>
       </c>
@@ -1427,14 +1440,14 @@
       <c r="F34" s="4">
         <v>268.72000000000003</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>37</v>
+      <c r="G34" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
@@ -1457,16 +1470,16 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>44006</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>56</v>
+      <c r="B35" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-06-24</v>
       </c>
@@ -1476,14 +1489,14 @@
       <c r="F35" s="4">
         <v>345.75</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>37</v>
+      <c r="G35" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
@@ -1506,16 +1519,16 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>44036</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>56</v>
+      <c r="B36" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-07-24</v>
       </c>
@@ -1525,14 +1538,14 @@
       <c r="F36" s="4">
         <v>210.37</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>37</v>
+      <c r="G36" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
@@ -1555,16 +1568,16 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>44067</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>56</v>
+      <c r="B37" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D37" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-08-24</v>
       </c>
@@ -1574,14 +1587,14 @@
       <c r="F37" s="4">
         <v>231.38</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>37</v>
+      <c r="G37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
@@ -1604,16 +1617,16 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>44098</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>56</v>
+      <c r="B38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D38" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-09-24</v>
       </c>
@@ -1623,14 +1636,14 @@
       <c r="F38" s="4">
         <v>182.37</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>37</v>
+      <c r="G38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -1653,16 +1666,16 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>44128</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>56</v>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-10-24</v>
       </c>
@@ -1672,14 +1685,14 @@
       <c r="F39" s="4">
         <v>247.72</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>37</v>
+      <c r="G39" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
@@ -1702,16 +1715,16 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>44159</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>56</v>
+      <c r="B40" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-11-24</v>
       </c>
@@ -1721,14 +1734,14 @@
       <c r="F40">
         <v>141.91</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>37</v>
+      <c r="G40" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
@@ -1751,16 +1764,16 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>44189</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>56</v>
+      <c r="B41" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2020-12-24</v>
       </c>
@@ -1770,14 +1783,14 @@
       <c r="F41">
         <v>166.81</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>37</v>
+      <c r="G41" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
@@ -1800,7 +1813,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="K42"/>
       <c r="O42" s="4"/>
     </row>
@@ -1810,25 +1823,25 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="13">
+        <v>52</v>
+      </c>
+      <c r="B44" s="12">
         <v>2019</v>
       </c>
       <c r="K44"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>43489</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>56</v>
+      <c r="B45" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D45" s="8" t="str">
         <f>TEXT(A45,"yyyy-mm-dd")</f>
         <v>2019-01-24</v>
       </c>
@@ -1838,14 +1851,14 @@
       <c r="F45" s="4">
         <v>77.33</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>37</v>
+      <c r="G45" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J45" t="str">
         <f>TEXT(A45,"yyyy-mm")</f>
@@ -1868,16 +1881,16 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <v>43516</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>59</v>
+      <c r="B46" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D46" s="8" t="str">
         <f>TEXT(A46,"yyyy-mm-dd")</f>
         <v>2019-02-20</v>
       </c>
@@ -1887,14 +1900,14 @@
       <c r="F46" s="4">
         <v>474.67</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>37</v>
+      <c r="G46" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J46" t="str">
         <f>TEXT(A46,"yyyy-mm")</f>
@@ -1917,16 +1930,16 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <v>43520</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>56</v>
+      <c r="B47" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D47" s="8" t="str">
         <f t="shared" ref="D47:D57" si="4">TEXT(A47,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
@@ -1936,14 +1949,14 @@
       <c r="F47" s="4">
         <v>105.34</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>37</v>
+      <c r="G47" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ref="J47:J57" si="5">TEXT(A47,"yyyy-mm")</f>
@@ -1966,16 +1979,16 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>43548</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>56</v>
+      <c r="B48" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D48" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-03-24</v>
       </c>
@@ -1985,14 +1998,14 @@
       <c r="F48" s="4">
         <v>82</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>37</v>
+      <c r="G48" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="5"/>
@@ -2015,16 +2028,16 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>43579</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>56</v>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D49" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-04-24</v>
       </c>
@@ -2034,14 +2047,14 @@
       <c r="F49" s="4">
         <v>110.01</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>37</v>
+      <c r="G49" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="5"/>
@@ -2064,16 +2077,16 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <v>43609</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>56</v>
+      <c r="B50" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D50" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-05-24</v>
       </c>
@@ -2083,14 +2096,14 @@
       <c r="F50" s="4">
         <v>79.430000000000007</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>37</v>
+      <c r="G50" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="5"/>
@@ -2113,16 +2126,16 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>43640</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>56</v>
+      <c r="B51" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-06-24</v>
       </c>
@@ -2132,14 +2145,14 @@
       <c r="F51" s="4">
         <v>102.62</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>37</v>
+      <c r="G51" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="5"/>
@@ -2162,16 +2175,16 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <v>43670</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>56</v>
+      <c r="B52" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D52" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-07-24</v>
       </c>
@@ -2181,14 +2194,14 @@
       <c r="F52" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>37</v>
+      <c r="G52" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="5"/>
@@ -2211,16 +2224,16 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>43701</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>56</v>
+      <c r="B53" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D53" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-08-24</v>
       </c>
@@ -2230,14 +2243,14 @@
       <c r="F53" s="4">
         <v>64.489999999999995</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>37</v>
+      <c r="G53" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="5"/>
@@ -2260,16 +2273,16 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <v>43732</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>56</v>
+      <c r="B54" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D54" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-09-24</v>
       </c>
@@ -2279,14 +2292,14 @@
       <c r="F54" s="4">
         <v>96.79</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>37</v>
+      <c r="G54" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="5"/>
@@ -2309,16 +2322,16 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>43762</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>56</v>
+      <c r="B55" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D55" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-10-24</v>
       </c>
@@ -2328,14 +2341,14 @@
       <c r="F55" s="4">
         <v>86.67</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>37</v>
+      <c r="G55" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="5"/>
@@ -2358,16 +2371,16 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <v>43793</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>56</v>
+      <c r="B56" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D56" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-11-24</v>
       </c>
@@ -2377,14 +2390,14 @@
       <c r="F56" s="4">
         <v>82.7</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>37</v>
+      <c r="G56" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="5"/>
@@ -2407,16 +2420,16 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <v>43823</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>56</v>
+      <c r="B57" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="9" t="str">
+        <v>33</v>
+      </c>
+      <c r="D57" s="8" t="str">
         <f t="shared" si="4"/>
         <v>2019-12-24</v>
       </c>
@@ -2426,14 +2439,14 @@
       <c r="F57" s="4">
         <v>102.62</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>37</v>
+      <c r="G57" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="5"/>
@@ -2456,15 +2469,15 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="14"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="13"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
